--- a/code_graphing/STScore.xlsx
+++ b/code_graphing/STScore.xlsx
@@ -514,7 +514,7 @@
         <v>723.1510204081633</v>
       </c>
       <c r="E4" t="n">
-        <v>808.3075571177504</v>
+        <v>703.9948717948718</v>
       </c>
       <c r="F4" t="n">
         <v>540.3839541547278</v>
@@ -534,7 +534,7 @@
         <v>796.1855670103092</v>
       </c>
       <c r="E5" t="n">
-        <v>843.1599099099099</v>
+        <v>785.0493827160494</v>
       </c>
       <c r="F5" t="n">
         <v>591.4815864022663</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1058.971181556196</v>
+        <v>931.233918128655</v>
       </c>
       <c r="E6" t="n">
         <v>915.3645833333334</v>
@@ -591,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>975.2593516209477</v>
+        <v>1124.22972972973</v>
       </c>
       <c r="E8" t="n">
         <v>967.3518518518518</v>
@@ -611,7 +611,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1053.978835978836</v>
+        <v>1181.981735159817</v>
       </c>
       <c r="E9" t="n">
         <v>1031.75641025641</v>
@@ -631,7 +631,7 @@
         <v>1292.587931034483</v>
       </c>
       <c r="D10" t="n">
-        <v>1143.712250712251</v>
+        <v>1214.604494382022</v>
       </c>
       <c r="E10" t="n">
         <v>1102.44375</v>
@@ -651,7 +651,7 @@
         <v>1374.673346693387</v>
       </c>
       <c r="D11" t="n">
-        <v>1150.941860465116</v>
+        <v>1248.032258064516</v>
       </c>
       <c r="E11" t="n">
         <v>1176.068965517241</v>
